--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377919.463760888</v>
+        <v>-2380367.696839941</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>3.344133765339818</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>60.02349468456055</v>
+        <v>286.8968440776278</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>79.30363001464849</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>368.1481849057135</v>
+        <v>245.4588842880047</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.00299712417345</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>210.8450656158977</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>45.20927613716488</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>39.35503333538749</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.0714343917598</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>26.54828005183007</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>116.8059475363021</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>166.0509296744559</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>242.1041544404866</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>21.01892910097861</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>22.26634217487522</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>192.3115746392111</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128501</v>
       </c>
       <c r="T25" t="n">
         <v>172.5738126575766</v>
@@ -2542,7 +2542,7 @@
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335029</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797738</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
         <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734080389</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957279</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3439,10 +3439,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9570160514543</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870209</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3560,7 +3560,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3916,7 +3916,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124556</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870198</v>
+        <v>239.23670158702</v>
       </c>
       <c r="V43" t="n">
         <v>205.1625067052354</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>803.4111058960621</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C2" t="n">
-        <v>800.0331930017794</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="D2" t="n">
-        <v>441.7674943950288</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="E2" t="n">
-        <v>441.7674943950288</v>
+        <v>908.1896546124863</v>
       </c>
       <c r="F2" t="n">
-        <v>441.7674943950288</v>
+        <v>497.2037498228787</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.010945960184</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,7 +4419,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="C4" t="n">
-        <v>184.027325963587</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="D4" t="n">
-        <v>184.027325963587</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="E4" t="n">
-        <v>184.027325963587</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>2362.359926029862</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>2362.359926029862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>955.5060781830496</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>586.5435612426379</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>1345.645410158861</v>
+        <v>1237.954139587604</v>
       </c>
       <c r="Y5" t="n">
-        <v>955.5060781830496</v>
+        <v>847.8148076117928</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634718</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2651.483155526137</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2475.305667840307</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2256.67100081237</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2002.909215450461</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1671.84632810689</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1319.077672836776</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.94687169884</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1363086691491</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C10" t="n">
-        <v>246.1363086691491</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="D10" t="n">
-        <v>246.1363086691491</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="E10" t="n">
-        <v>246.1363086691491</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F10" t="n">
-        <v>246.1363086691491</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691491</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691491</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691491</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691491</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5027,34 +5027,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>686.6690720494829</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>517.732889121576</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>367.6162497092403</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>219.7031561268471</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>219.7031561268471</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>219.7031561268471</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1096.30708777774</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>868.3175368797226</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>868.3175368797226</v>
       </c>
     </row>
     <row r="14">
@@ -5282,19 +5282,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089883</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468559</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5376,31 +5376,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.1038984121913</v>
+        <v>556.371005353728</v>
       </c>
       <c r="C16" t="n">
-        <v>339.1038984121913</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1838.357660512479</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1838.357660512479</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1549.254793638123</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1294.570305432236</v>
       </c>
       <c r="W16" t="n">
-        <v>741.5449423859611</v>
+        <v>1005.153135395276</v>
       </c>
       <c r="X16" t="n">
-        <v>741.5449423859611</v>
+        <v>777.1635844972582</v>
       </c>
       <c r="Y16" t="n">
-        <v>520.752363242431</v>
+        <v>556.371005353728</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.715908442899</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>3163.468180669545</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3666.440651548882</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
         <v>339.1038984121913</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="X19" t="n">
-        <v>688.4551998677121</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.4551998677121</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="20">
@@ -5750,46 +5750,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>805.5092287479694</v>
+        <v>845.1241201853858</v>
       </c>
       <c r="C22" t="n">
-        <v>805.5092287479694</v>
+        <v>676.1879372574789</v>
       </c>
       <c r="D22" t="n">
-        <v>655.3925893356336</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
         <v>192.8867116300491</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U22" t="n">
-        <v>1570.403466134347</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V22" t="n">
-        <v>1315.71897792846</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W22" t="n">
-        <v>1026.301807891499</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="X22" t="n">
-        <v>1026.301807891499</v>
+        <v>1247.565164159156</v>
       </c>
       <c r="Y22" t="n">
-        <v>805.5092287479694</v>
+        <v>1026.772585015626</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -6002,31 +6002,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C25" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G25" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H25" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K25" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L25" t="n">
         <v>800.7468040499225</v>
@@ -6172,25 +6172,25 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S25" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T25" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U25" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V25" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6233,13 +6233,13 @@
         <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>1770.231306037953</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>2749.9835782646</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O26" t="n">
-        <v>3629.948228594054</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215061</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774101</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F28" t="n">
         <v>364.4578361932524</v>
@@ -6376,7 +6376,7 @@
         <v>244.2046325160447</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,31 +6403,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R28" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T28" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U28" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,28 +6540,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215054</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C31" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774094</v>
+        <v>564.361611377409</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430891</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932521</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160444</v>
       </c>
       <c r="H31" t="n">
         <v>145.4370786819758</v>
@@ -6622,10 +6622,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6640,31 +6640,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q31" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R31" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S31" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T31" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U31" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W31" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X31" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.70670236413</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,16 +6777,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6926,31 +6926,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2750.971543384381</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7078,16 +7078,16 @@
         <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7096,10 +7096,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499222</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,16 +7114,16 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U37" t="n">
         <v>1725.799256195774</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7178,46 +7178,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7251,40 +7251,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
         <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,28 +7354,28 @@
         <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>888.4135721382793</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1339.447785386688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2317.998088216516</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>3297.750360443163</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7500,28 +7500,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7567,13 +7567,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,7 +7591,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
         <v>2141.769472604457</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
         <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,19 +7728,19 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932522</v>
+        <v>364.457836193252</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7807,31 +7807,31 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499226</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036713</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8067,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476859</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8930,22 +8930,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>11.64153443578789</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>39.48321557772726</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>201.3549853008794</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>344.7025836476839</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="P26" t="n">
-        <v>172.4995987156013</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400276</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.83833503974995e-12</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>170.1140909277323</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10589,19 +10589,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>248.8400772687177</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10826,25 +10826,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>146.0713065388582</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>103.7862464855152</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11072,16 +11072,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>99.83049520285955</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>353.7606753362344</v>
+        <v>126.8873259431672</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>146.4060253743887</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>118.2067348624907</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>72.96307779513982</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>120.4720686621351</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.1076837651263</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>204.6907262880585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>126.3491308433371</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>93.90026356640175</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1387287.743149602</v>
+        <v>1387287.743149603</v>
       </c>
     </row>
     <row r="9">
@@ -26314,7 +26314,7 @@
         <v>17181.37891796535</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
@@ -26326,34 +26326,34 @@
         <v>19854.08934434915</v>
       </c>
       <c r="G2" t="n">
-        <v>19854.08934434916</v>
+        <v>19854.08934434915</v>
       </c>
       <c r="H2" t="n">
         <v>19854.08934434915</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660705</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660705</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="N2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918987</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.653297409</v>
       </c>
       <c r="J4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="K4" t="n">
+        <v>33605.65329740904</v>
+      </c>
+      <c r="L4" t="n">
+        <v>33605.65329740902</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33605.65329740902</v>
+      </c>
+      <c r="N4" t="n">
         <v>33605.65329740899</v>
-      </c>
-      <c r="L4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33605.65329740899</v>
-      </c>
-      <c r="N4" t="n">
-        <v>33605.65329740898</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>100332.6710141021</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762633.2712817913</v>
+        <v>-762967.7378146553</v>
       </c>
       <c r="C6" t="n">
+        <v>-245681.7206739303</v>
+      </c>
+      <c r="D6" t="n">
         <v>-245681.7206739304</v>
       </c>
-      <c r="D6" t="n">
-        <v>-245681.7206739303</v>
-      </c>
       <c r="E6" t="n">
-        <v>-822055.3352219613</v>
+        <v>-822122.5307121866</v>
       </c>
       <c r="F6" t="n">
-        <v>-94677.92122855443</v>
+        <v>-94745.11671878018</v>
       </c>
       <c r="G6" t="n">
-        <v>-94677.92122855443</v>
+        <v>-94745.11671878022</v>
       </c>
       <c r="H6" t="n">
-        <v>-94677.92122855442</v>
+        <v>-94745.11671878022</v>
       </c>
       <c r="I6" t="n">
         <v>-150992.3893597781</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762112</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>361.9287580056678</v>
+        <v>265.442396568148</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>16.63754732114094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.582915772755484</v>
+        <v>124.2722163904644</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121.8289830577638</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>154.4278261551098</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>9.269126437646833</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>107.0789293111817</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.23836786729115</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H30" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q31" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H33" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.928301823349</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q34" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.928301823349</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970236</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359047</v>
       </c>
       <c r="P11" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>563.9433698486994</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>578.4043314079538</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>600.1169715202512</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>883.6236994779107</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36534,7 +36534,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>611.8392473737334</v>
       </c>
       <c r="P26" t="n">
-        <v>571.2615849349731</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282465</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200641</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230589</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013307</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>787.7611930989441</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013307</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>698.3731419517696</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37710,16 +37710,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>440.9775330409156</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525793</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,10 +38184,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
